--- a/biology/Médecine/The_Knick/The_Knick.xlsx
+++ b/biology/Médecine/The_Knick/The_Knick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Knick est une série télévisée américaine en vingt épisodes de 52 minutes créée par Jack Amiel et Michael Begler, réalisée par Steven Soderbergh, et diffusée entre le 8 août 2014[1] et le 18 décembre 2015 sur Cinemax et en simultané au Canada sur HBO Canada[2].
-En France, elle est diffusée 24 heures plus tard, après la retransmission américaine depuis le 9 août 2014 sur OCS Go[3] en version sous-titrée française. En Suisse, elle est diffusée depuis le 1er septembre 2014 sur RTS Un[4] en version sous-titrée française. Au Québec, elle est diffusée depuis le 25 novembre 2014 à Super Écran[5]. Néanmoins, elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Knick est une série télévisée américaine en vingt épisodes de 52 minutes créée par Jack Amiel et Michael Begler, réalisée par Steven Soderbergh, et diffusée entre le 8 août 2014 et le 18 décembre 2015 sur Cinemax et en simultané au Canada sur HBO Canada.
+En France, elle est diffusée 24 heures plus tard, après la retransmission américaine depuis le 9 août 2014 sur OCS Go en version sous-titrée française. En Suisse, elle est diffusée depuis le 1er septembre 2014 sur RTS Un en version sous-titrée française. Au Québec, elle est diffusée depuis le 25 novembre 2014 à Super Écran. Néanmoins, elle reste inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'hôpital Knickerbocker de New York, au début du XXe siècle, époque où les antibiotiques n'existent pas encore, les chirurgiens et les infirmières doivent repousser les limites médicales alors que le taux de mortalité a soudainement augmenté.
-Le Dr John Thackery (inspiré de William Halsted[6]), récemment nommé à la tête du service de chirurgie, est rejoint par le Dr Algernon Edwards (inspiré de Daniel Hale Williams et Louis T. Wright[7]), diplômé de Harvard et ayant pratiqué en Europe. Alors que le premier se bat contre ses addictions pour atteindre ses ambitions de grandes découvertes médicales, le second doit lutter contre les préjugés raciaux et gagner le respect de la population majoritairement blanche de l'hôpital et de la ville.
+Le Dr John Thackery (inspiré de William Halsted), récemment nommé à la tête du service de chirurgie, est rejoint par le Dr Algernon Edwards (inspiré de Daniel Hale Williams et Louis T. Wright), diplômé de Harvard et ayant pratiqué en Europe. Alors que le premier se bat contre ses addictions pour atteindre ses ambitions de grandes découvertes médicales, le second doit lutter contre les préjugés raciaux et gagner le respect de la population majoritairement blanche de l'hôpital et de la ville.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personnages principaux
-Clive Owen (VF : Julien Kramer) : Dr John « Thack » Thackery
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clive Owen (VF : Julien Kramer) : Dr John « Thack » Thackery
 André Holland (VF : Jean-Baptiste Anoumon) : Dr Algernon Edwards
 Jeremy Bobb (VF : Bernard Gabay) : Herman Barrow
 Juliet Rylance (VF : Marie-Eve Dufresne) : Cornelia Robertson
@@ -566,9 +585,43 @@
 LaTonya Borsay : Evaline Edwards, mère d'Algernon (récurrente saison 1)
 Rachel Korine (VF : Jade Phan-Gia) : Junia (récurrente saison 1)
 Tom Lipinski (VF : Thibaut Lacour) : Phillip Showalter (récurrent saison 1)
-Michael Nathanson Dr Levi Zinberg (récurrent saison 1)
-Personnages secondaires
-Lucas Papaelias (VF : Guy Vouillot) : Eldon Pouncey
+Michael Nathanson Dr Levi Zinberg (récurrent saison 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lucas Papaelias (VF : Guy Vouillot) : Eldon Pouncey
 Ying Ying Li (VF : Jade Phan-Gia) : Lin-Lin
 Richard James Porter (VF : Gérard Sergue) : monseigneur Joseph Mills Lawlor
 Zuzanna Szadkowski (VF : Margaretta Bluet) : Infirmière Pell
@@ -582,16 +635,92 @@
 Johanna Day (en) : Eunice Showalter
 Happy Anderson : James « Jimmy » Fester
 Frank Wood : Mr. Havershorn
-John Hodgman : Dr Henry Cotton
-Saison 1 seulement
-Emily Bergl (VF : Valérie Nosrée) : Mme Hemming
+John Hodgman : Dr Henry Cotton</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saison 1 seulement</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Emily Bergl (VF : Valérie Nosrée) : Mme Hemming
 Danny Hoch (en) (VF : Jean-Alain Velardo) : Bunky Collier
 Melissa Errico (VF : Claudine Grémy) : Catherine Christiansen
 Ghana Leigh (VF : Odile Schmitt) : Mme Odom
 Collin Meath : Phineas « Phinny » Sears
-Tom Papa (en) : Luff
-Saison 2
-Arielle Goldman : Genevieve Everidge
+Tom Papa (en) : Luff</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arielle Goldman : Genevieve Everidge
 Stephen Spinella : le révérend Elkins
 Linda Emond : Anne Chickering
 Ntare Guma Mbaho Mwine : D.W. Garrison Carr
@@ -602,79 +731,156 @@
 Colman Domingo (VF : Guillaume Orsat) : Dr Russell Daniels
 Fred Weller (en) : M. Brockhurst
 Version française
-Société de doublage : Mediadub International[8],[9]
-Direction artistique : Catherine Le Lann[9]
-Adaptation des dialogues : Lara Saarbach et Claire Impens[9]
- Source et légende : version française (VF) sur RS Doublage[8] et Doublage Séries Database[9]
+Société de doublage : Mediadub International,
+Direction artistique : Catherine Le Lann
+Adaptation des dialogues : Lara Saarbach et Claire Impens
+ Source et légende : version française (VF) sur RS Doublage et Doublage Séries Database
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Knick</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement
-Le Dr Stanley Burns, fondateur et PDG de la Burns Archive (en) – une collection privée regroupant des milliers de photographies médicales – tient lieu de conseiller médical sur la série. Il a travaillé avec la production et les acteurs pour rendre les scènes se déroulant dans l'hôpital réalistes et authentiques. Il a fourni de nombreux tutoriels sur la pratique de la chirurgie au début du XXe siècle[10]. Les images des archives sont utilisées sur la série, servant de référence pour les aérosols d'antiseptiques dans l'amphithéâtre de chirurgie, le fonctionnement de la machine à rayons X, ainsi que pour la prothèse portée par un personnage récurrent[11].
-Le 10 juillet 2014, soit un mois avant la diffusion du premier épisode, la série a été renouvelée pour une deuxième saison[12].
-Au moment de la diffusion de la finale de la deuxième saison en décembre 2015, Cinemax a commandé un script pour un éventuel premier épisode de la troisième saison[13].
-Le 23 mars 2017, la série est annulée[14].
-Casting
-Le casting original a débuté en août 2013, dans cet ordre : André Holland, Juliet Rylance, Eve Hewson et Michael Angarano[15], Eric Johnson, Cara Seymour, Chris Sullivan[16] et Grainger Hines[17].
-Récurrents dans la première saison, Tom Lipinski en juillet 2014[18] puis Michael Nathanson en octobre 2014[19], sont promus à la distribution principale. En mars 2015, Arielle Goldman décroche un rôle récurrent lors de la deuxième saison[20].
-Tournage
-La production a débuté en septembre 2013 à New York[21].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Stanley Burns, fondateur et PDG de la Burns Archive (en) – une collection privée regroupant des milliers de photographies médicales – tient lieu de conseiller médical sur la série. Il a travaillé avec la production et les acteurs pour rendre les scènes se déroulant dans l'hôpital réalistes et authentiques. Il a fourni de nombreux tutoriels sur la pratique de la chirurgie au début du XXe siècle. Les images des archives sont utilisées sur la série, servant de référence pour les aérosols d'antiseptiques dans l'amphithéâtre de chirurgie, le fonctionnement de la machine à rayons X, ainsi que pour la prothèse portée par un personnage récurrent.
+Le 10 juillet 2014, soit un mois avant la diffusion du premier épisode, la série a été renouvelée pour une deuxième saison.
+Au moment de la diffusion de la finale de la deuxième saison en décembre 2015, Cinemax a commandé un script pour un éventuel premier épisode de la troisième saison.
+Le 23 mars 2017, la série est annulée.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Knick</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le casting original a débuté en août 2013, dans cet ordre : André Holland, Juliet Rylance, Eve Hewson et Michael Angarano, Eric Johnson, Cara Seymour, Chris Sullivan et Grainger Hines.
+Récurrents dans la première saison, Tom Lipinski en juillet 2014 puis Michael Nathanson en octobre 2014, sont promus à la distribution principale. En mars 2015, Arielle Goldman décroche un rôle récurrent lors de la deuxième saison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production a débuté en septembre 2013 à New York.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Titre original : The Knick
 Création : Jack Amiel et Michael Begler
@@ -697,34 +903,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Knick</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Première saison (2014)
-Méthode et folie (Method and Madness)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Première saison (2014)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Méthode et folie (Method and Madness)
 Les Chaussures de M. Paris (Mr. Paris Shoes)
 Les Puces animées (The Busy Flea)
 Où est la dignité ? (Where's The Dignity?)
@@ -733,9 +944,43 @@
 Attrape la corde (Get the Rope)
 Dur travail en retard (Working Late a Lot)
 Le Lotus d'or (The Golden Lotus)
-Le Bouclier (Crutchfield)
-Deuxième saison (2015)
-Elle a été diffusée depuis le 16 octobre 2015[22].
+Le Bouclier (Crutchfield)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2015)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elle a été diffusée depuis le 16 octobre 2015.
 Dix nœuds (Ten Knots)
 Rien d'une rose (You're No Rose)
 Les Meilleurs pour obtenir encore meilleur (The Best with the Best to Get the Best)
@@ -749,75 +994,154 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The_Knick</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-Le premier épisode de la série a été vu par 354 000 téléspectateurs[23].
-Accueil critique
-The Knick obtient la note de 75 / 100 sur l'agrégateur de critiques Metacritic[24], ainsi que 89 % de critiques positives sur Rotten Tomatoes, avec une moyenne de 8,4 / 10[25]. Le site s'accorde sur le consensus suivant : « The Knick est une série historique sincère et émotionnelle ayant adopté une approche terre-à-terre et où tous les coups sont permis dans un sujet ô combien vital[26]. »
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier épisode de la série a été vu par 354 000 téléspectateurs.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>The_Knick</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Knick obtient la note de 75 / 100 sur l'agrégateur de critiques Metacritic, ainsi que 89 % de critiques positives sur Rotten Tomatoes, avec une moyenne de 8,4 / 10. Le site s'accorde sur le consensus suivant : « The Knick est une série historique sincère et émotionnelle ayant adopté une approche terre-à-terre et où tous les coups sont permis dans un sujet ô combien vital. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Récompenses
-Satellite Awards 2015 :
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Satellite Awards 2015 :
 Meilleure série télévisée dramatique
 Meilleur acteur dans une série télévisée dramatique pour Clive Owen
 Meilleur casting pour Clive Owen, Andre Holland, Jeremy Bobb, Juliet Rylance, Eve Hewson, Michael Angarano, Chris Sullivan, Cara Seymour, Eric Johnson, David Fierro, Maya Kazan, Leon Addison Brown, Grainger Hines et Matt Frewer
 67e cérémonie des Primetime Emmy Awards : Meilleure direction artistique pour un programme narratif d'une heure ou plus – Howard Cummings, Henry Dunn et Regina Graves
-2016 : Academy Television Honors pour la saison 2
-Nominations
-Satellite Awards 2015 : Meilleur acteur dans un second rôle dans une série télévisée pour Andre Holland
+2016 : Academy Television Honors pour la saison 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The_Knick</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Knick</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Satellite Awards 2015 : Meilleur acteur dans un second rôle dans une série télévisée pour Andre Holland
 67e cérémonie des Primetime Emmy Awards :
 68e cérémonie des Primetime Emmy Awards :</t>
         </is>
